--- a/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -49,6 +55,15 @@
     <t>金信核心竞争力灵活配置混合</t>
   </si>
   <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
     <t>92.11</t>
   </si>
   <si>
@@ -59,6 +74,15 @@
   </si>
   <si>
     <t>6.68</t>
+  </si>
+  <si>
+    <t>0.0683</t>
+  </si>
+  <si>
+    <t>0.0059</t>
+  </si>
+  <si>
+    <t>0.0027</t>
   </si>
 </sst>
 </file>
@@ -416,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,64 +462,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
@@ -1,120 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>006692</t>
-  </si>
-  <si>
-    <t>006693</t>
-  </si>
-  <si>
-    <t>009317</t>
-  </si>
-  <si>
-    <t>金信消费升级股票A</t>
-  </si>
-  <si>
-    <t>金信消费升级股票C</t>
-  </si>
-  <si>
-    <t>金信核心竞争力灵活配置混合</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>92.11</t>
-  </si>
-  <si>
-    <t>83.91</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
-    <t>6.68</t>
-  </si>
-  <si>
-    <t>0.0683</t>
-  </si>
-  <si>
-    <t>0.0059</t>
-  </si>
-  <si>
-    <t>0.0027</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,115 +446,605 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1047,4 +1048,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1056,7 +1057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,17 +1068,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1087,14 +1108,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1103,13 +1146,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1379,7 +1380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,17 +1391,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1410,14 +1431,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1965</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -1426,14 +1469,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1442,13 +1507,971 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>66.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688298-东方生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2386,7 +2387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,17 +2398,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2417,14 +2438,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.68</v>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2433,14 +2476,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="4">
@@ -2449,14 +2582,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -2465,13 +2598,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>
